--- a/gpu-cores.xlsx
+++ b/gpu-cores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QijiX\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\vivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE795DA4-A611-4887-B3ED-8EBE1820B4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6440181E-94D0-4B8B-B1C7-76DDA68920B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Adreno 730</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,18 +39,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Execution Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cores</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +80,26 @@
   </si>
   <si>
     <t>unknow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU/per EU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution Unit/per Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknow（Maybe Total 1024ALU）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合来看，Apple GPU的频率较高，较多的EU能够提升硬件大粒度调度的灵活性，算力最强。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -433,7 +445,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -447,24 +459,24 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -472,13 +484,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -486,30 +498,35 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
